--- a/Stimuli-Presentation-Order.xlsx
+++ b/Stimuli-Presentation-Order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="340" windowWidth="34400" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="34400" windowHeight="19040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -62,12 +56,24 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,8 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +435,7 @@
       </c>
       <c r="B1">
         <f ca="1">RAND()</f>
-        <v>0.48883640231815662</v>
+        <v>0.11909759448462864</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -436,7 +444,7 @@
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.93619864096035599</v>
+        <v>0.68633387022055103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -445,7 +453,7 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()</f>
-        <v>0.3874343306188166</v>
+        <v>0.27236127723426762</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -454,7 +462,7 @@
       </c>
       <c r="B4">
         <f ca="1">RAND()</f>
-        <v>0.62215868472594593</v>
+        <v>0.15884018424912938</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -463,7 +471,7 @@
       </c>
       <c r="B5">
         <f ca="1">RAND()</f>
-        <v>0.76462481841645058</v>
+        <v>0.86519663875424158</v>
       </c>
     </row>
   </sheetData>
@@ -486,25 +494,25 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
@@ -512,19 +520,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -532,19 +540,19 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
@@ -552,19 +560,19 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
@@ -572,19 +580,19 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">

--- a/Stimuli-Presentation-Order.xlsx
+++ b/Stimuli-Presentation-Order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="34400" windowHeight="19040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1080" yWindow="3060" windowWidth="34400" windowHeight="19040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="5">
   <si>
     <t>P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -88,9 +94,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +440,7 @@
       </c>
       <c r="B1">
         <f ca="1">RAND()</f>
-        <v>0.11909759448462864</v>
+        <v>0.80461885332533711</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -444,7 +449,7 @@
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.68633387022055103</v>
+        <v>0.57588271239364985</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -453,7 +458,7 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()</f>
-        <v>0.27236127723426762</v>
+        <v>0.81988258294586558</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -462,7 +467,7 @@
       </c>
       <c r="B4">
         <f ca="1">RAND()</f>
-        <v>0.15884018424912938</v>
+        <v>0.24710319350197096</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -471,7 +476,7 @@
       </c>
       <c r="B5">
         <f ca="1">RAND()</f>
-        <v>0.86519663875424158</v>
+        <v>0.93150106993834925</v>
       </c>
     </row>
   </sheetData>
@@ -491,10 +496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -503,19 +508,19 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -523,19 +528,19 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -543,19 +548,19 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -563,19 +568,19 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -583,24 +588,24 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -609,9 +614,18 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
@@ -620,9 +634,18 @@
       <c r="C9" t="s">
         <v>0</v>
       </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
@@ -631,9 +654,18 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
@@ -641,6 +673,15 @@
       </c>
       <c r="C11" t="s">
         <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -653,8 +694,205 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <f ca="1">RAND()</f>
+        <v>0.98412455642119312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <f ca="1">RAND()</f>
+        <v>9.8806181411418947E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <f ca="1">RAND()</f>
+        <v>0.8480592919895571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f ca="1">RAND()</f>
+        <v>4.4589334523152502E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <f ca="1">RAND()</f>
+        <v>0.51778230596755748</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A20:B24">
+    <sortCondition ref="B20:B24"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Stimuli-Presentation-Order.xlsx
+++ b/Stimuli-Presentation-Order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="3060" windowWidth="34400" windowHeight="19040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4560" yWindow="680" windowWidth="17960" windowHeight="19040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="11">
   <si>
     <t>P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,30 @@
   </si>
   <si>
     <t>P6M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P31M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,12 +70,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -62,18 +80,12 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -96,7 +108,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +452,7 @@
       </c>
       <c r="B1">
         <f ca="1">RAND()</f>
-        <v>0.80461885332533711</v>
+        <v>4.346374123088026E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -449,7 +461,7 @@
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.57588271239364985</v>
+        <v>0.3284469141090085</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -458,7 +470,7 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()</f>
-        <v>0.81988258294586558</v>
+        <v>0.91706327283100109</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -467,7 +479,7 @@
       </c>
       <c r="B4">
         <f ca="1">RAND()</f>
-        <v>0.24710319350197096</v>
+        <v>0.32294205453854374</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -476,7 +488,7 @@
       </c>
       <c r="B5">
         <f ca="1">RAND()</f>
-        <v>0.93150106993834925</v>
+        <v>0.38539063297230314</v>
       </c>
     </row>
   </sheetData>
@@ -499,7 +511,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -608,7 +620,7 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -628,7 +640,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -648,7 +660,7 @@
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
@@ -668,7 +680,7 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -688,7 +700,7 @@
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
@@ -811,6 +823,12 @@
       <c r="B20" t="s">
         <v>2</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -819,6 +837,12 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -827,6 +851,12 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
@@ -835,6 +865,12 @@
       <c r="B23" t="s">
         <v>0</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
@@ -843,6 +879,12 @@
       <c r="B24" t="s">
         <v>1</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
@@ -850,7 +892,7 @@
       </c>
       <c r="B35">
         <f ca="1">RAND()</f>
-        <v>0.98412455642119312</v>
+        <v>0.98956770579299302</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -859,7 +901,7 @@
       </c>
       <c r="B36">
         <f ca="1">RAND()</f>
-        <v>9.8806181411418947E-2</v>
+        <v>0.29711736141598521</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -868,7 +910,7 @@
       </c>
       <c r="B37">
         <f ca="1">RAND()</f>
-        <v>0.8480592919895571</v>
+        <v>0.61354638781267568</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -877,7 +919,7 @@
       </c>
       <c r="B38">
         <f ca="1">RAND()</f>
-        <v>4.4589334523152502E-2</v>
+        <v>0.56461209931148915</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -886,10 +928,11 @@
       </c>
       <c r="B39">
         <f ca="1">RAND()</f>
-        <v>0.51778230596755748</v>
+        <v>0.59702399962316122</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A20:B24">
     <sortCondition ref="B20:B24"/>
   </sortState>
